--- a/DWAVJobKorea/Result/RPA채용정보20220225.xlsx
+++ b/DWAVJobKorea/Result/RPA채용정보20220225.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\07_RPA\workspace\DWAVRPA\DWAVRPA\DWAVJobKorea\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9090558F-3AD2-4E31-A792-200DE1F06FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2502C916-EE60-46F1-BEA6-19CFC84817E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="3015" windowWidth="15885" windowHeight="11850" xr2:uid="{53EC3BDB-6DB5-4A05-9298-9758939EEFE9}"/>
+    <workbookView xWindow="11445" yWindow="1380" windowWidth="15885" windowHeight="11850" xr2:uid="{53EC3BDB-6DB5-4A05-9298-9758939EEFE9}"/>
   </bookViews>
   <sheets>
     <sheet name="사람인" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="193">
   <si>
     <t>회사명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,6 +681,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>테이크솔루션(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[경력&amp;신입] RPA사업부 개발 및 구축 인재 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이븐클라우드서비스(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터시각화, RPA 개발자, Azure 엔지니어 (신입/경력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)카이정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년 웹프로그래머 신입, 경력 채용합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규직·프리랜서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/31(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)마이링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[MY LINK] 2022 상반기 웹개발,S/W, Big Data, AI 각 신입 채용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전 유성구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 03/21(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)와이티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java 웹개발자 채용 [신입(정규직)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 04/17(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)채티스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[채티스] 웹 백엔드 개발자 정규직 채용 공고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(주)유니드컴즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -693,71 +761,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테이크솔루션(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[경력&amp;신입] RPA사업부 개발 및 구축 인재 모집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비바엔에스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RPA 스크립트 개발 및 기술지원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메이븐클라우드서비스(주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터시각화, RPA 개발자, Azure 엔지니어 (신입/경력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)카이정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022년 웹프로그래머 신입, 경력 채용합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정규직·프리랜서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/31(목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)마이링크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[MY LINK] 2022 상반기 웹개발,S/W, Big Data, AI 각 신입 채용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전 유성구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 03/21(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주)와이티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java 웹개발자 채용 [신입(정규직)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ 04/17(일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1171,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5DB0A4-EB33-4854-A3E8-B8BB1C99B192}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2861,13 +2869,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D47" t="s">
         <v>67</v>
@@ -2905,10 +2913,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C48" t="s">
         <v>25</v>
@@ -2949,10 +2957,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
@@ -2993,10 +3001,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -3037,10 +3045,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
         <v>39</v>
@@ -3052,10 +3060,10 @@
         <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G51" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="N51" t="s">
         <v>48</v>
@@ -3063,13 +3071,13 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s">
         <v>81</v>
@@ -3081,7 +3089,7 @@
         <v>82</v>
       </c>
       <c r="G52" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="N52" t="s">
         <v>48</v>
@@ -3089,13 +3097,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
         <v>81</v>
@@ -3107,7 +3115,7 @@
         <v>82</v>
       </c>
       <c r="G53" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N53" t="s">
         <v>48</v>
@@ -3115,10 +3123,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
         <v>25</v>
@@ -3133,7 +3141,7 @@
         <v>82</v>
       </c>
       <c r="G54" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H54">
         <v>2.4</v>
@@ -3159,10 +3167,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s">
         <v>130</v>
@@ -3177,7 +3185,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3203,10 +3211,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B56" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
         <v>76</v>
@@ -3247,10 +3255,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C57" t="s">
         <v>76</v>
@@ -3287,6 +3295,76 @@
       </c>
       <c r="N57" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" t="s">
+        <v>175</v>
+      </c>
+      <c r="N59" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
